--- a/materials/exp_lists/session_1_8.xlsx
+++ b/materials/exp_lists/session_1_8.xlsx
@@ -137,7 +137,7 @@
     <t>farantu = терка?</t>
   </si>
   <si>
-    <t>reskane</t>
+    <t>reketre</t>
   </si>
   <si>
     <t>шприц</t>
@@ -341,13 +341,13 @@
     <t>kavenu</t>
   </si>
   <si>
-    <t>reskane.wav</t>
+    <t>reketre.wav</t>
   </si>
   <si>
     <t>флаг</t>
   </si>
   <si>
-    <t>reskane = самолет?</t>
+    <t>reketre = самолет?</t>
   </si>
   <si>
     <t>ekiste</t>
